--- a/excel_files/6.2.1.1.xlsx
+++ b/excel_files/6.2.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -312,10 +312,9 @@
     <xf numFmtId="38" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -697,7 +696,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -707,495 +706,522 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>2011</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>2012</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>2013</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <v>2014</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <v>2015</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>2016</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="31">
         <v>2017</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="31">
         <v>2018</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="31">
         <v>2019</v>
       </c>
+      <c r="M4" s="31">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>25.409176121708509</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>26.881444427092088</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>28.022386195061991</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>28.074761567940566</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>28.6</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>30.191440257916568</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>31.303387202705807</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>31.5</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>31.5</v>
       </c>
+      <c r="M5" s="22">
+        <v>34.377950588852634</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>2.9698183576213828</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>3.6528907207307562</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>4.7830634792651834</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>5.2203799951019692</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>6.7</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>6.3050836536583503</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>12.02195723459222</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <v>9.1</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <v>5.9</v>
       </c>
+      <c r="M6" s="23">
+        <v>4.8358243107925931</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>8.771071126047806</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>11.685930422822452</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>5.4949637548237895</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>5.6093293109930702</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>5.6</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>8.3444422578354285</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>14.376772854149495</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="23">
         <v>9</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="23">
         <v>6.2</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="23">
+        <v>5.9543034993102522</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>15.385834469858461</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>18.787621589627332</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>25.086019797787305</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>24.16337389503758</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <v>27.1</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>29.986451460885956</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <v>38.652292109660173</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="23">
         <v>41.4</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="23">
         <v>30.5</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="23">
+        <v>51.21106605430419</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>5.5505440710783667</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>6.2654040242010662</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>12.479391864169072</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>14.196021800562242</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>13.7</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <v>16.983672902290355</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <v>17.842313387212478</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="23">
         <v>20.399999999999999</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <v>21.8</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="23">
+        <v>27.156801192263725</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>8.251864137737444</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>7.8249612780867457</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>0.18990600164335175</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>0.72699386003617872</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>0.5</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <v>0.44988170209128941</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <v>7.1535875241433584E-3</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="23">
         <v>0.5</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="23">
         <v>1.7</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="23">
+        <v>0.94331159862228353</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>9.0342374653142219</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>7.8405792790457536</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>5.098828421834944</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>5.4933320389763258</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>6.5</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <v>6.5165588869292579</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <v>6.137177145637291</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="23">
         <v>6</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="23">
         <v>6.2</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="23">
+        <v>7.8509592890793316</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>41.925111326422567</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>46.114485989829575</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>46.19385190513168</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>49.202745383444821</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>48.7</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>50.971427171906761</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="23">
         <v>48.935048468284563</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="23">
         <v>56.8</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="23">
         <v>63.3</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="23">
+        <v>64.733302669743793</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>84.554249579977053</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>85.140508968304715</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>98.608136326848182</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>99.390116337241565</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>98.6</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <v>99.663698159511753</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="23">
         <v>97.392326489136082</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="23">
         <v>96.5</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="23">
         <v>96.1</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="23">
+        <v>97.67954817102779</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="26">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="25">
         <v>28.731700012670331</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>27.932014266053006</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>28.2</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <v>29.548534012471357</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>25.391510887517011</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <v>25.5</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <v>30.9</v>
       </c>
+      <c r="M14" s="25">
+        <v>46.725153243037099</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="7.5" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="19" spans="12:12" ht="12.75" customHeight="1"/>
-    <row r="22" spans="12:12" s="16" customFormat="1" ht="15">
-      <c r="L22" s="17"/>
+    <row r="22" spans="12:12" s="15" customFormat="1" ht="15">
+      <c r="L22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/excel_files/6.2.1.1.xlsx
+++ b/excel_files/6.2.1.1.xlsx
@@ -120,9 +120,6 @@
     <t xml:space="preserve">   Osh city </t>
   </si>
   <si>
-    <t>(percent)</t>
-  </si>
-  <si>
     <t>Ош облусу (2013 ж. чейин Ош шаары кошулуп)</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>6.2.1.1 Percentage of population with sustainable access to sanitation facilities</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -696,24 +696,24 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="37.140625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="23">
         <v>8.251864137737444</v>

--- a/excel_files/6.2.1.1.xlsx
+++ b/excel_files/6.2.1.1.xlsx
@@ -312,7 +312,7 @@
     <xf numFmtId="38" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -375,6 +375,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -693,10 +696,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -705,7 +708,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39.75" customHeight="1">
+    <row r="1" spans="1:15" ht="39.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -721,7 +724,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1">
+    <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>28</v>
       </c>
@@ -737,7 +740,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -751,8 +754,10 @@
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1">
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="13.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -792,8 +797,14 @@
       <c r="M4" s="31">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="31">
+        <v>2021</v>
+      </c>
+      <c r="O4" s="31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -833,8 +844,14 @@
       <c r="M5" s="22">
         <v>34.377950588852634</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="32">
+        <v>40.007977647471066</v>
+      </c>
+      <c r="O5" s="32">
+        <v>42.620582506455563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -874,8 +891,14 @@
       <c r="M6" s="23">
         <v>4.8358243107925931</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="33">
+        <v>5.7072514621689896</v>
+      </c>
+      <c r="O6" s="33">
+        <v>8.1443914479075037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -915,8 +938,14 @@
       <c r="M7" s="23">
         <v>5.9543034993102522</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="33">
+        <v>8.9893229854028949</v>
+      </c>
+      <c r="O7" s="33">
+        <v>10.715961386284755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -956,8 +985,14 @@
       <c r="M8" s="23">
         <v>51.21106605430419</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="33">
+        <v>66.307512472824584</v>
+      </c>
+      <c r="O8" s="33">
+        <v>81.977461999426666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -997,8 +1032,14 @@
       <c r="M9" s="23">
         <v>27.156801192263725</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="33">
+        <v>23.475213049310256</v>
+      </c>
+      <c r="O9" s="33">
+        <v>29.828871240443185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
@@ -1038,8 +1079,14 @@
       <c r="M10" s="23">
         <v>0.94331159862228353</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="33">
+        <v>9.8045372040896162</v>
+      </c>
+      <c r="O10" s="33">
+        <v>9.7218425128664112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1079,8 +1126,14 @@
       <c r="M11" s="23">
         <v>7.8509592890793316</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="33">
+        <v>9.3737779268960448</v>
+      </c>
+      <c r="O11" s="33">
+        <v>8.6167819403064012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1120,8 +1173,14 @@
       <c r="M12" s="23">
         <v>64.733302669743793</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="33">
+        <v>70.457032471318783</v>
+      </c>
+      <c r="O12" s="33">
+        <v>69.915337594090886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
@@ -1161,8 +1220,14 @@
       <c r="M13" s="23">
         <v>97.67954817102779</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="13.5" customHeight="1" thickBot="1">
+      <c r="N13" s="33">
+        <v>98.411252120183207</v>
+      </c>
+      <c r="O13" s="33">
+        <v>99.08571752721997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -1198,8 +1263,14 @@
       <c r="M14" s="25">
         <v>46.725153243037099</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="7.5" customHeight="1">
+      <c r="N14" s="34">
+        <v>63.900563564170795</v>
+      </c>
+      <c r="O14" s="34">
+        <v>64.805252627098838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="7.5" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1209,7 +1280,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>

--- a/excel_files/6.2.1.1.xlsx
+++ b/excel_files/6.2.1.1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>(в процентах)</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>(in percent)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
     <xf numFmtId="38" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -378,6 +381,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -696,11 +702,9 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
@@ -708,7 +712,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1">
+    <row r="1" spans="1:16" ht="39.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -724,7 +728,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>28</v>
       </c>
@@ -740,7 +744,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -756,8 +760,9 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" ht="13.5" thickBot="1">
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -803,8 +808,11 @@
       <c r="O4" s="31">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="31">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -850,8 +858,11 @@
       <c r="O5" s="32">
         <v>42.620582506455563</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="32">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -897,8 +908,11 @@
       <c r="O6" s="33">
         <v>8.1443914479075037</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="33">
+        <v>8.6767564891727478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -944,8 +958,11 @@
       <c r="O7" s="33">
         <v>10.715961386284755</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="33">
+        <v>12.226605469730881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -991,8 +1008,11 @@
       <c r="O8" s="33">
         <v>81.977461999426666</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="33">
+        <v>78.520866131691164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1038,8 +1058,11 @@
       <c r="O9" s="33">
         <v>29.828871240443185</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="33">
+        <v>59.466452648968115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
@@ -1085,8 +1108,11 @@
       <c r="O10" s="33">
         <v>9.7218425128664112</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="33">
+        <v>26.635270208942913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1132,8 +1158,11 @@
       <c r="O11" s="33">
         <v>8.6167819403064012</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="33">
+        <v>8.166450559693871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1179,8 +1208,11 @@
       <c r="O12" s="33">
         <v>69.915337594090886</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="33">
+        <v>74.601894583630667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
@@ -1226,8 +1258,11 @@
       <c r="O13" s="33">
         <v>99.08571752721997</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
+      <c r="P13" s="33">
+        <v>99.168063426054971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -1237,8 +1272,12 @@
       <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" s="25">
         <v>28.731700012670331</v>
       </c>
@@ -1269,8 +1308,11 @@
       <c r="O14" s="34">
         <v>64.805252627098838</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="7.5" customHeight="1">
+      <c r="P14" s="34">
+        <v>70.956108992253434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.5" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1280,7 +1322,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
